--- a/advanced_Excel.xlsx
+++ b/advanced_Excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\karan_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EC634B-FA19-4777-A537-A18A53B6DCDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F820F-5D6F-423B-9703-059C1A445A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="29">
   <si>
     <t>OrderDate</t>
   </si>
@@ -119,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +162,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -243,19 +252,33 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -570,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,19 +606,19 @@
     <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -773,23 +796,17 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="K12" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -813,9 +830,8 @@
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K13" t="e">
-        <f>VLOOKUP("Central",$A$13:$G$56,3,0)</f>
-        <v>#N/A</v>
+      <c r="K13" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -841,7 +857,7 @@
         <v>189.05</v>
       </c>
       <c r="K14" t="e">
-        <f>HLOOKUP(K9, A13:$G$56, 7, 1)</f>
+        <f>VLOOKUP($I$16,$A$2:$G$8,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -889,6 +905,9 @@
       </c>
       <c r="G16" s="4">
         <v>179.64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1827,4 +1846,1436 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9E23DD-01F2-4DF1-B814-3F773C1CA8EC}">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="str">
+        <f>Sheet1!A13</f>
+        <v>OrderDate</v>
+      </c>
+      <c r="B1" s="15" t="str">
+        <f>Sheet1!B13</f>
+        <v>Region</v>
+      </c>
+      <c r="C1" s="15" t="str">
+        <f>Sheet1!C13</f>
+        <v>Rep</v>
+      </c>
+      <c r="D1" s="15" t="str">
+        <f>Sheet1!D13</f>
+        <v>Item</v>
+      </c>
+      <c r="E1" s="15" t="str">
+        <f>Sheet1!E13</f>
+        <v>Units</v>
+      </c>
+      <c r="F1" s="15" t="str">
+        <f>Sheet1!F13</f>
+        <v>UnitCost</v>
+      </c>
+      <c r="G1" s="15" t="str">
+        <f>Sheet1!G13</f>
+        <v>Total</v>
+      </c>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <f>Sheet1!A14</f>
+        <v>45297</v>
+      </c>
+      <c r="B2" s="11" t="str">
+        <f>Sheet1!B14</f>
+        <v>East</v>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f>Sheet1!C14</f>
+        <v>Jones</v>
+      </c>
+      <c r="D2" s="11" t="str">
+        <f>Sheet1!D14</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E2" s="11">
+        <f>Sheet1!E14</f>
+        <v>95</v>
+      </c>
+      <c r="F2" s="11">
+        <f>Sheet1!F14</f>
+        <v>1.99</v>
+      </c>
+      <c r="G2" s="11">
+        <f>Sheet1!G14</f>
+        <v>189.05</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <f>Sheet1!A15</f>
+        <v>45314</v>
+      </c>
+      <c r="B3" s="11" t="str">
+        <f>Sheet1!B15</f>
+        <v>Central</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>Sheet1!C15</f>
+        <v>Kivell</v>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f>Sheet1!D15</f>
+        <v>Binder</v>
+      </c>
+      <c r="E3" s="11">
+        <f>Sheet1!E15</f>
+        <v>50</v>
+      </c>
+      <c r="F3" s="11">
+        <f>Sheet1!F15</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G3" s="11">
+        <f>Sheet1!G15</f>
+        <v>999.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <f>Sheet1!A16</f>
+        <v>45331</v>
+      </c>
+      <c r="B4" s="11" t="str">
+        <f>Sheet1!B16</f>
+        <v>Central</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>Sheet1!C16</f>
+        <v>Jardine</v>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f>Sheet1!D16</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E4" s="11">
+        <f>Sheet1!E16</f>
+        <v>36</v>
+      </c>
+      <c r="F4" s="11">
+        <f>Sheet1!F16</f>
+        <v>4.99</v>
+      </c>
+      <c r="G4" s="11">
+        <f>Sheet1!G16</f>
+        <v>179.64</v>
+      </c>
+      <c r="I4" t="str">
+        <f>VLOOKUP(I2,$B$1:$G$44,3,0)</f>
+        <v>Pencil</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <f>Sheet1!A17</f>
+        <v>45348</v>
+      </c>
+      <c r="B5" s="11" t="str">
+        <f>Sheet1!B17</f>
+        <v>Central</v>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f>Sheet1!C17</f>
+        <v>Gill</v>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f>Sheet1!D17</f>
+        <v>Pen</v>
+      </c>
+      <c r="E5" s="11">
+        <f>Sheet1!E17</f>
+        <v>27</v>
+      </c>
+      <c r="F5" s="11">
+        <f>Sheet1!F17</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G5" s="11">
+        <f>Sheet1!G17</f>
+        <v>539.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <f>Sheet1!A18</f>
+        <v>45366</v>
+      </c>
+      <c r="B6" s="11" t="str">
+        <f>Sheet1!B18</f>
+        <v>West</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f>Sheet1!C18</f>
+        <v>Sorvino</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f>Sheet1!D18</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E6" s="11">
+        <f>Sheet1!E18</f>
+        <v>56</v>
+      </c>
+      <c r="F6" s="11">
+        <f>Sheet1!F18</f>
+        <v>2.99</v>
+      </c>
+      <c r="G6" s="11">
+        <f>Sheet1!G18</f>
+        <v>167.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <f>Sheet1!A19</f>
+        <v>45383</v>
+      </c>
+      <c r="B7" s="11" t="str">
+        <f>Sheet1!B19</f>
+        <v>East</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f>Sheet1!C19</f>
+        <v>Jones</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f>Sheet1!D19</f>
+        <v>Binder</v>
+      </c>
+      <c r="E7" s="11">
+        <f>Sheet1!E19</f>
+        <v>60</v>
+      </c>
+      <c r="F7" s="11">
+        <f>Sheet1!F19</f>
+        <v>4.99</v>
+      </c>
+      <c r="G7" s="11">
+        <f>Sheet1!G19</f>
+        <v>299.39999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <f>Sheet1!A20</f>
+        <v>45400</v>
+      </c>
+      <c r="B8" s="11" t="str">
+        <f>Sheet1!B20</f>
+        <v>Central</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>Sheet1!C20</f>
+        <v>Andrews</v>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f>Sheet1!D20</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E8" s="11">
+        <f>Sheet1!E20</f>
+        <v>75</v>
+      </c>
+      <c r="F8" s="11">
+        <f>Sheet1!F20</f>
+        <v>1.99</v>
+      </c>
+      <c r="G8" s="11">
+        <f>Sheet1!G20</f>
+        <v>149.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <f>Sheet1!A21</f>
+        <v>45417</v>
+      </c>
+      <c r="B9" s="11" t="str">
+        <f>Sheet1!B21</f>
+        <v>Central</v>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f>Sheet1!C21</f>
+        <v>Jardine</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f>Sheet1!D21</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E9" s="11">
+        <f>Sheet1!E21</f>
+        <v>90</v>
+      </c>
+      <c r="F9" s="11">
+        <f>Sheet1!F21</f>
+        <v>4.99</v>
+      </c>
+      <c r="G9" s="11">
+        <f>Sheet1!G21</f>
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <f>Sheet1!A22</f>
+        <v>45434</v>
+      </c>
+      <c r="B10" s="11" t="str">
+        <f>Sheet1!B22</f>
+        <v>West</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f>Sheet1!C22</f>
+        <v>Thompson</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>Sheet1!D22</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E10" s="11">
+        <f>Sheet1!E22</f>
+        <v>32</v>
+      </c>
+      <c r="F10" s="11">
+        <f>Sheet1!F22</f>
+        <v>1.99</v>
+      </c>
+      <c r="G10" s="11">
+        <f>Sheet1!G22</f>
+        <v>63.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <f>Sheet1!A23</f>
+        <v>45451</v>
+      </c>
+      <c r="B11" s="11" t="str">
+        <f>Sheet1!B23</f>
+        <v>East</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>Sheet1!C23</f>
+        <v>Jones</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>Sheet1!D23</f>
+        <v>Binder</v>
+      </c>
+      <c r="E11" s="11">
+        <f>Sheet1!E23</f>
+        <v>60</v>
+      </c>
+      <c r="F11" s="11">
+        <f>Sheet1!F23</f>
+        <v>8.99</v>
+      </c>
+      <c r="G11" s="11">
+        <f>Sheet1!G23</f>
+        <v>539.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <f>Sheet1!A24</f>
+        <v>45468</v>
+      </c>
+      <c r="B12" s="11" t="str">
+        <f>Sheet1!B24</f>
+        <v>Central</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>Sheet1!C24</f>
+        <v>Morgan</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>Sheet1!D24</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E12" s="11">
+        <f>Sheet1!E24</f>
+        <v>90</v>
+      </c>
+      <c r="F12" s="11">
+        <f>Sheet1!F24</f>
+        <v>4.99</v>
+      </c>
+      <c r="G12" s="11">
+        <f>Sheet1!G24</f>
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <f>Sheet1!A25</f>
+        <v>45485</v>
+      </c>
+      <c r="B13" s="11" t="str">
+        <f>Sheet1!B25</f>
+        <v>East</v>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f>Sheet1!C25</f>
+        <v>Howard</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f>Sheet1!D25</f>
+        <v>Binder</v>
+      </c>
+      <c r="E13" s="11">
+        <f>Sheet1!E25</f>
+        <v>29</v>
+      </c>
+      <c r="F13" s="11">
+        <f>Sheet1!F25</f>
+        <v>1.99</v>
+      </c>
+      <c r="G13" s="11">
+        <f>Sheet1!G25</f>
+        <v>57.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <f>Sheet1!A26</f>
+        <v>45502</v>
+      </c>
+      <c r="B14" s="11" t="str">
+        <f>Sheet1!B26</f>
+        <v>East</v>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>Sheet1!C26</f>
+        <v>Parent</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f>Sheet1!D26</f>
+        <v>Binder</v>
+      </c>
+      <c r="E14" s="11">
+        <f>Sheet1!E26</f>
+        <v>81</v>
+      </c>
+      <c r="F14" s="11">
+        <f>Sheet1!F26</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G14" s="11">
+        <f>Sheet1!G26</f>
+        <v>1619.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <f>Sheet1!A27</f>
+        <v>45519</v>
+      </c>
+      <c r="B15" s="11" t="str">
+        <f>Sheet1!B27</f>
+        <v>East</v>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f>Sheet1!C27</f>
+        <v>Jones</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f>Sheet1!D27</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E15" s="11">
+        <f>Sheet1!E27</f>
+        <v>35</v>
+      </c>
+      <c r="F15" s="11">
+        <f>Sheet1!F27</f>
+        <v>4.99</v>
+      </c>
+      <c r="G15" s="11">
+        <f>Sheet1!G27</f>
+        <v>174.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <f>Sheet1!A28</f>
+        <v>45536</v>
+      </c>
+      <c r="B16" s="11" t="str">
+        <f>Sheet1!B28</f>
+        <v>Central</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>Sheet1!C28</f>
+        <v>Smith</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f>Sheet1!D28</f>
+        <v>Desk</v>
+      </c>
+      <c r="E16" s="11">
+        <f>Sheet1!E28</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <f>Sheet1!F28</f>
+        <v>125</v>
+      </c>
+      <c r="G16" s="11">
+        <f>Sheet1!G28</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <f>Sheet1!A29</f>
+        <v>45553</v>
+      </c>
+      <c r="B17" s="11" t="str">
+        <f>Sheet1!B29</f>
+        <v>East</v>
+      </c>
+      <c r="C17" s="11" t="str">
+        <f>Sheet1!C29</f>
+        <v>Jones</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>Sheet1!D29</f>
+        <v>Pen Set</v>
+      </c>
+      <c r="E17" s="11">
+        <f>Sheet1!E29</f>
+        <v>16</v>
+      </c>
+      <c r="F17" s="11">
+        <f>Sheet1!F29</f>
+        <v>15.99</v>
+      </c>
+      <c r="G17" s="11">
+        <f>Sheet1!G29</f>
+        <v>255.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <f>Sheet1!A30</f>
+        <v>45570</v>
+      </c>
+      <c r="B18" s="11" t="str">
+        <f>Sheet1!B30</f>
+        <v>Central</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f>Sheet1!C30</f>
+        <v>Morgan</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f>Sheet1!D30</f>
+        <v>Binder</v>
+      </c>
+      <c r="E18" s="11">
+        <f>Sheet1!E30</f>
+        <v>28</v>
+      </c>
+      <c r="F18" s="11">
+        <f>Sheet1!F30</f>
+        <v>8.99</v>
+      </c>
+      <c r="G18" s="11">
+        <f>Sheet1!G30</f>
+        <v>251.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <f>Sheet1!A31</f>
+        <v>45587</v>
+      </c>
+      <c r="B19" s="11" t="str">
+        <f>Sheet1!B31</f>
+        <v>East</v>
+      </c>
+      <c r="C19" s="11" t="str">
+        <f>Sheet1!C31</f>
+        <v>Jones</v>
+      </c>
+      <c r="D19" s="11" t="str">
+        <f>Sheet1!D31</f>
+        <v>Pen</v>
+      </c>
+      <c r="E19" s="11">
+        <f>Sheet1!E31</f>
+        <v>64</v>
+      </c>
+      <c r="F19" s="11">
+        <f>Sheet1!F31</f>
+        <v>8.99</v>
+      </c>
+      <c r="G19" s="11">
+        <f>Sheet1!G31</f>
+        <v>575.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <f>Sheet1!A32</f>
+        <v>45604</v>
+      </c>
+      <c r="B20" s="11" t="str">
+        <f>Sheet1!B32</f>
+        <v>East</v>
+      </c>
+      <c r="C20" s="11" t="str">
+        <f>Sheet1!C32</f>
+        <v>Parent</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f>Sheet1!D32</f>
+        <v>Pen</v>
+      </c>
+      <c r="E20" s="11">
+        <f>Sheet1!E32</f>
+        <v>15</v>
+      </c>
+      <c r="F20" s="11">
+        <f>Sheet1!F32</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G20" s="11">
+        <f>Sheet1!G32</f>
+        <v>299.85000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <f>Sheet1!A33</f>
+        <v>45621</v>
+      </c>
+      <c r="B21" s="11" t="str">
+        <f>Sheet1!B33</f>
+        <v>Central</v>
+      </c>
+      <c r="C21" s="11" t="str">
+        <f>Sheet1!C33</f>
+        <v>Kivell</v>
+      </c>
+      <c r="D21" s="11" t="str">
+        <f>Sheet1!D33</f>
+        <v>Pen Set</v>
+      </c>
+      <c r="E21" s="11">
+        <f>Sheet1!E33</f>
+        <v>96</v>
+      </c>
+      <c r="F21" s="11">
+        <f>Sheet1!F33</f>
+        <v>4.99</v>
+      </c>
+      <c r="G21" s="11">
+        <f>Sheet1!G33</f>
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <f>Sheet1!A34</f>
+        <v>45638</v>
+      </c>
+      <c r="B22" s="11" t="str">
+        <f>Sheet1!B34</f>
+        <v>Central</v>
+      </c>
+      <c r="C22" s="11" t="str">
+        <f>Sheet1!C34</f>
+        <v>Smith</v>
+      </c>
+      <c r="D22" s="11" t="str">
+        <f>Sheet1!D34</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E22" s="11">
+        <f>Sheet1!E34</f>
+        <v>67</v>
+      </c>
+      <c r="F22" s="11">
+        <f>Sheet1!F34</f>
+        <v>1.29</v>
+      </c>
+      <c r="G22" s="11">
+        <f>Sheet1!G34</f>
+        <v>86.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <f>Sheet1!A35</f>
+        <v>45655</v>
+      </c>
+      <c r="B23" s="11" t="str">
+        <f>Sheet1!B35</f>
+        <v>East</v>
+      </c>
+      <c r="C23" s="11" t="str">
+        <f>Sheet1!C35</f>
+        <v>Parent</v>
+      </c>
+      <c r="D23" s="11" t="str">
+        <f>Sheet1!D35</f>
+        <v>Pen Set</v>
+      </c>
+      <c r="E23" s="11">
+        <f>Sheet1!E35</f>
+        <v>74</v>
+      </c>
+      <c r="F23" s="11">
+        <f>Sheet1!F35</f>
+        <v>15.99</v>
+      </c>
+      <c r="G23" s="11">
+        <f>Sheet1!G35</f>
+        <v>1183.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <f>Sheet1!A36</f>
+        <v>45672</v>
+      </c>
+      <c r="B24" s="11" t="str">
+        <f>Sheet1!B36</f>
+        <v>Central</v>
+      </c>
+      <c r="C24" s="11" t="str">
+        <f>Sheet1!C36</f>
+        <v>Gill</v>
+      </c>
+      <c r="D24" s="11" t="str">
+        <f>Sheet1!D36</f>
+        <v>Binder</v>
+      </c>
+      <c r="E24" s="11">
+        <f>Sheet1!E36</f>
+        <v>46</v>
+      </c>
+      <c r="F24" s="11">
+        <f>Sheet1!F36</f>
+        <v>8.99</v>
+      </c>
+      <c r="G24" s="11">
+        <f>Sheet1!G36</f>
+        <v>413.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <f>Sheet1!A37</f>
+        <v>45689</v>
+      </c>
+      <c r="B25" s="11" t="str">
+        <f>Sheet1!B37</f>
+        <v>Central</v>
+      </c>
+      <c r="C25" s="11" t="str">
+        <f>Sheet1!C37</f>
+        <v>Smith</v>
+      </c>
+      <c r="D25" s="11" t="str">
+        <f>Sheet1!D37</f>
+        <v>Binder</v>
+      </c>
+      <c r="E25" s="11">
+        <f>Sheet1!E37</f>
+        <v>87</v>
+      </c>
+      <c r="F25" s="11">
+        <f>Sheet1!F37</f>
+        <v>15</v>
+      </c>
+      <c r="G25" s="11">
+        <f>Sheet1!G37</f>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <f>Sheet1!A38</f>
+        <v>45706</v>
+      </c>
+      <c r="B26" s="11" t="str">
+        <f>Sheet1!B38</f>
+        <v>East</v>
+      </c>
+      <c r="C26" s="11" t="str">
+        <f>Sheet1!C38</f>
+        <v>Jones</v>
+      </c>
+      <c r="D26" s="11" t="str">
+        <f>Sheet1!D38</f>
+        <v>Binder</v>
+      </c>
+      <c r="E26" s="11">
+        <f>Sheet1!E38</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="11">
+        <f>Sheet1!F38</f>
+        <v>4.99</v>
+      </c>
+      <c r="G26" s="11">
+        <f>Sheet1!G38</f>
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <f>Sheet1!A39</f>
+        <v>45723</v>
+      </c>
+      <c r="B27" s="11" t="str">
+        <f>Sheet1!B39</f>
+        <v>West</v>
+      </c>
+      <c r="C27" s="11" t="str">
+        <f>Sheet1!C39</f>
+        <v>Sorvino</v>
+      </c>
+      <c r="D27" s="11" t="str">
+        <f>Sheet1!D39</f>
+        <v>Binder</v>
+      </c>
+      <c r="E27" s="11">
+        <f>Sheet1!E39</f>
+        <v>7</v>
+      </c>
+      <c r="F27" s="11">
+        <f>Sheet1!F39</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G27" s="11">
+        <f>Sheet1!G39</f>
+        <v>139.93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <f>Sheet1!A40</f>
+        <v>45740</v>
+      </c>
+      <c r="B28" s="11" t="str">
+        <f>Sheet1!B40</f>
+        <v>Central</v>
+      </c>
+      <c r="C28" s="11" t="str">
+        <f>Sheet1!C40</f>
+        <v>Jardine</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f>Sheet1!D40</f>
+        <v>Pen Set</v>
+      </c>
+      <c r="E28" s="11">
+        <f>Sheet1!E40</f>
+        <v>50</v>
+      </c>
+      <c r="F28" s="11">
+        <f>Sheet1!F40</f>
+        <v>4.99</v>
+      </c>
+      <c r="G28" s="11">
+        <f>Sheet1!G40</f>
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <f>Sheet1!A41</f>
+        <v>45757</v>
+      </c>
+      <c r="B29" s="11" t="str">
+        <f>Sheet1!B41</f>
+        <v>Central</v>
+      </c>
+      <c r="C29" s="11" t="str">
+        <f>Sheet1!C41</f>
+        <v>Andrews</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f>Sheet1!D41</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E29" s="11">
+        <f>Sheet1!E41</f>
+        <v>66</v>
+      </c>
+      <c r="F29" s="11">
+        <f>Sheet1!F41</f>
+        <v>1.99</v>
+      </c>
+      <c r="G29" s="11">
+        <f>Sheet1!G41</f>
+        <v>131.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <f>Sheet1!A42</f>
+        <v>45774</v>
+      </c>
+      <c r="B30" s="11" t="str">
+        <f>Sheet1!B42</f>
+        <v>East</v>
+      </c>
+      <c r="C30" s="11" t="str">
+        <f>Sheet1!C42</f>
+        <v>Howard</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f>Sheet1!D42</f>
+        <v>Pen</v>
+      </c>
+      <c r="E30" s="11">
+        <f>Sheet1!E42</f>
+        <v>96</v>
+      </c>
+      <c r="F30" s="11">
+        <f>Sheet1!F42</f>
+        <v>4.99</v>
+      </c>
+      <c r="G30" s="11">
+        <f>Sheet1!G42</f>
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <f>Sheet1!A43</f>
+        <v>45791</v>
+      </c>
+      <c r="B31" s="11" t="str">
+        <f>Sheet1!B43</f>
+        <v>Central</v>
+      </c>
+      <c r="C31" s="11" t="str">
+        <f>Sheet1!C43</f>
+        <v>Gill</v>
+      </c>
+      <c r="D31" s="11" t="str">
+        <f>Sheet1!D43</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E31" s="11">
+        <f>Sheet1!E43</f>
+        <v>53</v>
+      </c>
+      <c r="F31" s="11">
+        <f>Sheet1!F43</f>
+        <v>1.29</v>
+      </c>
+      <c r="G31" s="11">
+        <f>Sheet1!G43</f>
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <f>Sheet1!A44</f>
+        <v>45808</v>
+      </c>
+      <c r="B32" s="11" t="str">
+        <f>Sheet1!B44</f>
+        <v>Central</v>
+      </c>
+      <c r="C32" s="11" t="str">
+        <f>Sheet1!C44</f>
+        <v>Gill</v>
+      </c>
+      <c r="D32" s="11" t="str">
+        <f>Sheet1!D44</f>
+        <v>Binder</v>
+      </c>
+      <c r="E32" s="11">
+        <f>Sheet1!E44</f>
+        <v>80</v>
+      </c>
+      <c r="F32" s="11">
+        <f>Sheet1!F44</f>
+        <v>8.99</v>
+      </c>
+      <c r="G32" s="11">
+        <f>Sheet1!G44</f>
+        <v>719.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <f>Sheet1!A45</f>
+        <v>45825</v>
+      </c>
+      <c r="B33" s="11" t="str">
+        <f>Sheet1!B45</f>
+        <v>Central</v>
+      </c>
+      <c r="C33" s="11" t="str">
+        <f>Sheet1!C45</f>
+        <v>Kivell</v>
+      </c>
+      <c r="D33" s="11" t="str">
+        <f>Sheet1!D45</f>
+        <v>Desk</v>
+      </c>
+      <c r="E33" s="11">
+        <f>Sheet1!E45</f>
+        <v>5</v>
+      </c>
+      <c r="F33" s="11">
+        <f>Sheet1!F45</f>
+        <v>125</v>
+      </c>
+      <c r="G33" s="11">
+        <f>Sheet1!G45</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <f>Sheet1!A46</f>
+        <v>45842</v>
+      </c>
+      <c r="B34" s="11" t="str">
+        <f>Sheet1!B46</f>
+        <v>East</v>
+      </c>
+      <c r="C34" s="11" t="str">
+        <f>Sheet1!C46</f>
+        <v>Jones</v>
+      </c>
+      <c r="D34" s="11" t="str">
+        <f>Sheet1!D46</f>
+        <v>Pen Set</v>
+      </c>
+      <c r="E34" s="11">
+        <f>Sheet1!E46</f>
+        <v>62</v>
+      </c>
+      <c r="F34" s="11">
+        <f>Sheet1!F46</f>
+        <v>4.99</v>
+      </c>
+      <c r="G34" s="11">
+        <f>Sheet1!G46</f>
+        <v>309.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <f>Sheet1!A47</f>
+        <v>45859</v>
+      </c>
+      <c r="B35" s="11" t="str">
+        <f>Sheet1!B47</f>
+        <v>Central</v>
+      </c>
+      <c r="C35" s="11" t="str">
+        <f>Sheet1!C47</f>
+        <v>Morgan</v>
+      </c>
+      <c r="D35" s="11" t="str">
+        <f>Sheet1!D47</f>
+        <v>Pen Set</v>
+      </c>
+      <c r="E35" s="11">
+        <f>Sheet1!E47</f>
+        <v>55</v>
+      </c>
+      <c r="F35" s="11">
+        <f>Sheet1!F47</f>
+        <v>12.49</v>
+      </c>
+      <c r="G35" s="11">
+        <f>Sheet1!G47</f>
+        <v>686.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <f>Sheet1!A48</f>
+        <v>45876</v>
+      </c>
+      <c r="B36" s="11" t="str">
+        <f>Sheet1!B48</f>
+        <v>Central</v>
+      </c>
+      <c r="C36" s="11" t="str">
+        <f>Sheet1!C48</f>
+        <v>Kivell</v>
+      </c>
+      <c r="D36" s="11" t="str">
+        <f>Sheet1!D48</f>
+        <v>Pen Set</v>
+      </c>
+      <c r="E36" s="11">
+        <f>Sheet1!E48</f>
+        <v>42</v>
+      </c>
+      <c r="F36" s="11">
+        <f>Sheet1!F48</f>
+        <v>23.95</v>
+      </c>
+      <c r="G36" s="11">
+        <f>Sheet1!G48</f>
+        <v>1005.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <f>Sheet1!A49</f>
+        <v>45893</v>
+      </c>
+      <c r="B37" s="11" t="str">
+        <f>Sheet1!B49</f>
+        <v>West</v>
+      </c>
+      <c r="C37" s="11" t="str">
+        <f>Sheet1!C49</f>
+        <v>Sorvino</v>
+      </c>
+      <c r="D37" s="11" t="str">
+        <f>Sheet1!D49</f>
+        <v>Desk</v>
+      </c>
+      <c r="E37" s="11">
+        <f>Sheet1!E49</f>
+        <v>3</v>
+      </c>
+      <c r="F37" s="11">
+        <f>Sheet1!F49</f>
+        <v>275</v>
+      </c>
+      <c r="G37" s="11">
+        <f>Sheet1!G49</f>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <f>Sheet1!A50</f>
+        <v>45910</v>
+      </c>
+      <c r="B38" s="11" t="str">
+        <f>Sheet1!B50</f>
+        <v>Central</v>
+      </c>
+      <c r="C38" s="11" t="str">
+        <f>Sheet1!C50</f>
+        <v>Gill</v>
+      </c>
+      <c r="D38" s="11" t="str">
+        <f>Sheet1!D50</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E38" s="11">
+        <f>Sheet1!E50</f>
+        <v>7</v>
+      </c>
+      <c r="F38" s="11">
+        <f>Sheet1!F50</f>
+        <v>1.29</v>
+      </c>
+      <c r="G38" s="11">
+        <f>Sheet1!G50</f>
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <f>Sheet1!A51</f>
+        <v>45927</v>
+      </c>
+      <c r="B39" s="11" t="str">
+        <f>Sheet1!B51</f>
+        <v>West</v>
+      </c>
+      <c r="C39" s="11" t="str">
+        <f>Sheet1!C51</f>
+        <v>Sorvino</v>
+      </c>
+      <c r="D39" s="11" t="str">
+        <f>Sheet1!D51</f>
+        <v>Pen</v>
+      </c>
+      <c r="E39" s="11">
+        <f>Sheet1!E51</f>
+        <v>76</v>
+      </c>
+      <c r="F39" s="11">
+        <f>Sheet1!F51</f>
+        <v>1.99</v>
+      </c>
+      <c r="G39" s="11">
+        <f>Sheet1!G51</f>
+        <v>151.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <f>Sheet1!A52</f>
+        <v>45944</v>
+      </c>
+      <c r="B40" s="11" t="str">
+        <f>Sheet1!B52</f>
+        <v>West</v>
+      </c>
+      <c r="C40" s="11" t="str">
+        <f>Sheet1!C52</f>
+        <v>Thompson</v>
+      </c>
+      <c r="D40" s="11" t="str">
+        <f>Sheet1!D52</f>
+        <v>Binder</v>
+      </c>
+      <c r="E40" s="11">
+        <f>Sheet1!E52</f>
+        <v>57</v>
+      </c>
+      <c r="F40" s="11">
+        <f>Sheet1!F52</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G40" s="11">
+        <f>Sheet1!G52</f>
+        <v>1139.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <f>Sheet1!A53</f>
+        <v>45961</v>
+      </c>
+      <c r="B41" s="11" t="str">
+        <f>Sheet1!B53</f>
+        <v>Central</v>
+      </c>
+      <c r="C41" s="11" t="str">
+        <f>Sheet1!C53</f>
+        <v>Andrews</v>
+      </c>
+      <c r="D41" s="11" t="str">
+        <f>Sheet1!D53</f>
+        <v>Pencil</v>
+      </c>
+      <c r="E41" s="11">
+        <f>Sheet1!E53</f>
+        <v>14</v>
+      </c>
+      <c r="F41" s="11">
+        <f>Sheet1!F53</f>
+        <v>1.29</v>
+      </c>
+      <c r="G41" s="11">
+        <f>Sheet1!G53</f>
+        <v>18.059999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <f>Sheet1!A54</f>
+        <v>45978</v>
+      </c>
+      <c r="B42" s="11" t="str">
+        <f>Sheet1!B54</f>
+        <v>Central</v>
+      </c>
+      <c r="C42" s="11" t="str">
+        <f>Sheet1!C54</f>
+        <v>Jardine</v>
+      </c>
+      <c r="D42" s="11" t="str">
+        <f>Sheet1!D54</f>
+        <v>Binder</v>
+      </c>
+      <c r="E42" s="11">
+        <f>Sheet1!E54</f>
+        <v>11</v>
+      </c>
+      <c r="F42" s="11">
+        <f>Sheet1!F54</f>
+        <v>4.99</v>
+      </c>
+      <c r="G42" s="11">
+        <f>Sheet1!G54</f>
+        <v>54.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <f>Sheet1!A55</f>
+        <v>45995</v>
+      </c>
+      <c r="B43" s="11" t="str">
+        <f>Sheet1!B55</f>
+        <v>Central</v>
+      </c>
+      <c r="C43" s="11" t="str">
+        <f>Sheet1!C55</f>
+        <v>Jardine</v>
+      </c>
+      <c r="D43" s="11" t="str">
+        <f>Sheet1!D55</f>
+        <v>Binder</v>
+      </c>
+      <c r="E43" s="11">
+        <f>Sheet1!E55</f>
+        <v>94</v>
+      </c>
+      <c r="F43" s="11">
+        <f>Sheet1!F55</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G43" s="11">
+        <f>Sheet1!G55</f>
+        <v>1879.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <f>Sheet1!A56</f>
+        <v>46012</v>
+      </c>
+      <c r="B44" s="11" t="str">
+        <f>Sheet1!B56</f>
+        <v>Central</v>
+      </c>
+      <c r="C44" s="11" t="str">
+        <f>Sheet1!C56</f>
+        <v>Andrews</v>
+      </c>
+      <c r="D44" s="11" t="str">
+        <f>Sheet1!D56</f>
+        <v>Binder</v>
+      </c>
+      <c r="E44" s="11">
+        <f>Sheet1!E56</f>
+        <v>28</v>
+      </c>
+      <c r="F44" s="11">
+        <f>Sheet1!F56</f>
+        <v>4.99</v>
+      </c>
+      <c r="G44" s="11">
+        <f>Sheet1!G56</f>
+        <v>139.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/advanced_Excel.xlsx
+++ b/advanced_Excel.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\karan_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F820F-5D6F-423B-9703-059C1A445A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8AE482-92B9-4E48-9C51-B3DAF1180B1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Consolidate" sheetId="3" r:id="rId3"/>
+    <sheet name="cons._1" sheetId="4" r:id="rId4"/>
+    <sheet name="cons._2" sheetId="5" r:id="rId5"/>
+    <sheet name="cons._3" sheetId="6" r:id="rId6"/>
+    <sheet name="cons._4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="50">
   <si>
     <t>OrderDate</t>
   </si>
@@ -113,6 +118,69 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Products</t>
   </si>
 </sst>
 </file>
@@ -175,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -232,12 +306,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -262,9 +351,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,6 +365,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -593,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -610,15 +711,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -798,15 +899,15 @@
       <c r="G9" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -1853,75 +1954,75 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.21875" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="str">
+    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="str">
         <f>Sheet1!A13</f>
         <v>OrderDate</v>
       </c>
-      <c r="B1" s="15" t="str">
+      <c r="B1" s="14" t="str">
         <f>Sheet1!B13</f>
         <v>Region</v>
       </c>
-      <c r="C1" s="15" t="str">
+      <c r="C1" s="14" t="str">
         <f>Sheet1!C13</f>
         <v>Rep</v>
       </c>
-      <c r="D1" s="15" t="str">
+      <c r="D1" s="14" t="str">
         <f>Sheet1!D13</f>
         <v>Item</v>
       </c>
-      <c r="E1" s="15" t="str">
+      <c r="E1" s="14" t="str">
         <f>Sheet1!E13</f>
         <v>Units</v>
       </c>
-      <c r="F1" s="15" t="str">
+      <c r="F1" s="14" t="str">
         <f>Sheet1!F13</f>
         <v>UnitCost</v>
       </c>
-      <c r="G1" s="15" t="str">
+      <c r="G1" s="14" t="str">
         <f>Sheet1!G13</f>
         <v>Total</v>
       </c>
-      <c r="H1" s="15"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <f>Sheet1!A14</f>
         <v>45297</v>
       </c>
-      <c r="B2" s="11" t="str">
+      <c r="B2" s="10" t="str">
         <f>Sheet1!B14</f>
         <v>East</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="10" t="str">
         <f>Sheet1!C14</f>
         <v>Jones</v>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="10" t="str">
         <f>Sheet1!D14</f>
         <v>Pencil</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>Sheet1!E14</f>
         <v>95</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f>Sheet1!F14</f>
         <v>1.99</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <f>Sheet1!G14</f>
         <v>189.05</v>
       </c>
@@ -1930,61 +2031,61 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <f>Sheet1!A15</f>
         <v>45314</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <f>Sheet1!B15</f>
         <v>Central</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="10" t="str">
         <f>Sheet1!C15</f>
         <v>Kivell</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="10" t="str">
         <f>Sheet1!D15</f>
         <v>Binder</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>Sheet1!E15</f>
         <v>50</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>Sheet1!F15</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>Sheet1!G15</f>
         <v>999.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <f>Sheet1!A16</f>
         <v>45331</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="10" t="str">
         <f>Sheet1!B16</f>
         <v>Central</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="10" t="str">
         <f>Sheet1!C16</f>
         <v>Jardine</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>Sheet1!D16</f>
         <v>Pencil</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>Sheet1!E16</f>
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>Sheet1!F16</f>
         <v>4.99</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>Sheet1!G16</f>
         <v>179.64</v>
       </c>
@@ -1994,1288 +2095,2294 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <f>Sheet1!A17</f>
         <v>45348</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="10" t="str">
         <f>Sheet1!B17</f>
         <v>Central</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="10" t="str">
         <f>Sheet1!C17</f>
         <v>Gill</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="10" t="str">
         <f>Sheet1!D17</f>
         <v>Pen</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>Sheet1!E17</f>
         <v>27</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>Sheet1!F17</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>Sheet1!G17</f>
         <v>539.73</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <f>Sheet1!A18</f>
         <v>45366</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="10" t="str">
         <f>Sheet1!B18</f>
         <v>West</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="10" t="str">
         <f>Sheet1!C18</f>
         <v>Sorvino</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="10" t="str">
         <f>Sheet1!D18</f>
         <v>Pencil</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f>Sheet1!E18</f>
         <v>56</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>Sheet1!F18</f>
         <v>2.99</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>Sheet1!G18</f>
         <v>167.44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <f>Sheet1!A19</f>
         <v>45383</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="10" t="str">
         <f>Sheet1!B19</f>
         <v>East</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="10" t="str">
         <f>Sheet1!C19</f>
         <v>Jones</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="10" t="str">
         <f>Sheet1!D19</f>
         <v>Binder</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f>Sheet1!E19</f>
         <v>60</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>Sheet1!F19</f>
         <v>4.99</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>Sheet1!G19</f>
         <v>299.39999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <f>Sheet1!A20</f>
         <v>45400</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="10" t="str">
         <f>Sheet1!B20</f>
         <v>Central</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="10" t="str">
         <f>Sheet1!C20</f>
         <v>Andrews</v>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="10" t="str">
         <f>Sheet1!D20</f>
         <v>Pencil</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f>Sheet1!E20</f>
         <v>75</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>Sheet1!F20</f>
         <v>1.99</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>Sheet1!G20</f>
         <v>149.25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <f>Sheet1!A21</f>
         <v>45417</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="10" t="str">
         <f>Sheet1!B21</f>
         <v>Central</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="10" t="str">
         <f>Sheet1!C21</f>
         <v>Jardine</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="10" t="str">
         <f>Sheet1!D21</f>
         <v>Pencil</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>Sheet1!E21</f>
         <v>90</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>Sheet1!F21</f>
         <v>4.99</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>Sheet1!G21</f>
         <v>449.1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <f>Sheet1!A22</f>
         <v>45434</v>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="B10" s="10" t="str">
         <f>Sheet1!B22</f>
         <v>West</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="10" t="str">
         <f>Sheet1!C22</f>
         <v>Thompson</v>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="10" t="str">
         <f>Sheet1!D22</f>
         <v>Pencil</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f>Sheet1!E22</f>
         <v>32</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>Sheet1!F22</f>
         <v>1.99</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>Sheet1!G22</f>
         <v>63.68</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <f>Sheet1!A23</f>
         <v>45451</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" s="10" t="str">
         <f>Sheet1!B23</f>
         <v>East</v>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="10" t="str">
         <f>Sheet1!C23</f>
         <v>Jones</v>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="10" t="str">
         <f>Sheet1!D23</f>
         <v>Binder</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f>Sheet1!E23</f>
         <v>60</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>Sheet1!F23</f>
         <v>8.99</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>Sheet1!G23</f>
         <v>539.4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <f>Sheet1!A24</f>
         <v>45468</v>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="10" t="str">
         <f>Sheet1!B24</f>
         <v>Central</v>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="10" t="str">
         <f>Sheet1!C24</f>
         <v>Morgan</v>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="10" t="str">
         <f>Sheet1!D24</f>
         <v>Pencil</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f>Sheet1!E24</f>
         <v>90</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>Sheet1!F24</f>
         <v>4.99</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>Sheet1!G24</f>
         <v>449.1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <f>Sheet1!A25</f>
         <v>45485</v>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="B13" s="10" t="str">
         <f>Sheet1!B25</f>
         <v>East</v>
       </c>
-      <c r="C13" s="11" t="str">
+      <c r="C13" s="10" t="str">
         <f>Sheet1!C25</f>
         <v>Howard</v>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="10" t="str">
         <f>Sheet1!D25</f>
         <v>Binder</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f>Sheet1!E25</f>
         <v>29</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>Sheet1!F25</f>
         <v>1.99</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f>Sheet1!G25</f>
         <v>57.71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <f>Sheet1!A26</f>
         <v>45502</v>
       </c>
-      <c r="B14" s="11" t="str">
+      <c r="B14" s="10" t="str">
         <f>Sheet1!B26</f>
         <v>East</v>
       </c>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="10" t="str">
         <f>Sheet1!C26</f>
         <v>Parent</v>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="10" t="str">
         <f>Sheet1!D26</f>
         <v>Binder</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f>Sheet1!E26</f>
         <v>81</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>Sheet1!F26</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>Sheet1!G26</f>
         <v>1619.19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <f>Sheet1!A27</f>
         <v>45519</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="10" t="str">
         <f>Sheet1!B27</f>
         <v>East</v>
       </c>
-      <c r="C15" s="11" t="str">
+      <c r="C15" s="10" t="str">
         <f>Sheet1!C27</f>
         <v>Jones</v>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="10" t="str">
         <f>Sheet1!D27</f>
         <v>Pencil</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>Sheet1!E27</f>
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>Sheet1!F27</f>
         <v>4.99</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>Sheet1!G27</f>
         <v>174.65</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <f>Sheet1!A28</f>
         <v>45536</v>
       </c>
-      <c r="B16" s="11" t="str">
+      <c r="B16" s="10" t="str">
         <f>Sheet1!B28</f>
         <v>Central</v>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C16" s="10" t="str">
         <f>Sheet1!C28</f>
         <v>Smith</v>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="10" t="str">
         <f>Sheet1!D28</f>
         <v>Desk</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f>Sheet1!E28</f>
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>Sheet1!F28</f>
         <v>125</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>Sheet1!G28</f>
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <f>Sheet1!A29</f>
         <v>45553</v>
       </c>
-      <c r="B17" s="11" t="str">
+      <c r="B17" s="10" t="str">
         <f>Sheet1!B29</f>
         <v>East</v>
       </c>
-      <c r="C17" s="11" t="str">
+      <c r="C17" s="10" t="str">
         <f>Sheet1!C29</f>
         <v>Jones</v>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="10" t="str">
         <f>Sheet1!D29</f>
         <v>Pen Set</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f>Sheet1!E29</f>
         <v>16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>Sheet1!F29</f>
         <v>15.99</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f>Sheet1!G29</f>
         <v>255.84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <f>Sheet1!A30</f>
         <v>45570</v>
       </c>
-      <c r="B18" s="11" t="str">
+      <c r="B18" s="10" t="str">
         <f>Sheet1!B30</f>
         <v>Central</v>
       </c>
-      <c r="C18" s="11" t="str">
+      <c r="C18" s="10" t="str">
         <f>Sheet1!C30</f>
         <v>Morgan</v>
       </c>
-      <c r="D18" s="11" t="str">
+      <c r="D18" s="10" t="str">
         <f>Sheet1!D30</f>
         <v>Binder</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f>Sheet1!E30</f>
         <v>28</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>Sheet1!F30</f>
         <v>8.99</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <f>Sheet1!G30</f>
         <v>251.72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <f>Sheet1!A31</f>
         <v>45587</v>
       </c>
-      <c r="B19" s="11" t="str">
+      <c r="B19" s="10" t="str">
         <f>Sheet1!B31</f>
         <v>East</v>
       </c>
-      <c r="C19" s="11" t="str">
+      <c r="C19" s="10" t="str">
         <f>Sheet1!C31</f>
         <v>Jones</v>
       </c>
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="10" t="str">
         <f>Sheet1!D31</f>
         <v>Pen</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>Sheet1!E31</f>
         <v>64</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>Sheet1!F31</f>
         <v>8.99</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <f>Sheet1!G31</f>
         <v>575.36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <f>Sheet1!A32</f>
         <v>45604</v>
       </c>
-      <c r="B20" s="11" t="str">
+      <c r="B20" s="10" t="str">
         <f>Sheet1!B32</f>
         <v>East</v>
       </c>
-      <c r="C20" s="11" t="str">
+      <c r="C20" s="10" t="str">
         <f>Sheet1!C32</f>
         <v>Parent</v>
       </c>
-      <c r="D20" s="11" t="str">
+      <c r="D20" s="10" t="str">
         <f>Sheet1!D32</f>
         <v>Pen</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f>Sheet1!E32</f>
         <v>15</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>Sheet1!F32</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>Sheet1!G32</f>
         <v>299.85000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <f>Sheet1!A33</f>
         <v>45621</v>
       </c>
-      <c r="B21" s="11" t="str">
+      <c r="B21" s="10" t="str">
         <f>Sheet1!B33</f>
         <v>Central</v>
       </c>
-      <c r="C21" s="11" t="str">
+      <c r="C21" s="10" t="str">
         <f>Sheet1!C33</f>
         <v>Kivell</v>
       </c>
-      <c r="D21" s="11" t="str">
+      <c r="D21" s="10" t="str">
         <f>Sheet1!D33</f>
         <v>Pen Set</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f>Sheet1!E33</f>
         <v>96</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>Sheet1!F33</f>
         <v>4.99</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>Sheet1!G33</f>
         <v>479.04</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <f>Sheet1!A34</f>
         <v>45638</v>
       </c>
-      <c r="B22" s="11" t="str">
+      <c r="B22" s="10" t="str">
         <f>Sheet1!B34</f>
         <v>Central</v>
       </c>
-      <c r="C22" s="11" t="str">
+      <c r="C22" s="10" t="str">
         <f>Sheet1!C34</f>
         <v>Smith</v>
       </c>
-      <c r="D22" s="11" t="str">
+      <c r="D22" s="10" t="str">
         <f>Sheet1!D34</f>
         <v>Pencil</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f>Sheet1!E34</f>
         <v>67</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f>Sheet1!F34</f>
         <v>1.29</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>Sheet1!G34</f>
         <v>86.43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <f>Sheet1!A35</f>
         <v>45655</v>
       </c>
-      <c r="B23" s="11" t="str">
+      <c r="B23" s="10" t="str">
         <f>Sheet1!B35</f>
         <v>East</v>
       </c>
-      <c r="C23" s="11" t="str">
+      <c r="C23" s="10" t="str">
         <f>Sheet1!C35</f>
         <v>Parent</v>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="10" t="str">
         <f>Sheet1!D35</f>
         <v>Pen Set</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f>Sheet1!E35</f>
         <v>74</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f>Sheet1!F35</f>
         <v>15.99</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f>Sheet1!G35</f>
         <v>1183.26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <f>Sheet1!A36</f>
         <v>45672</v>
       </c>
-      <c r="B24" s="11" t="str">
+      <c r="B24" s="10" t="str">
         <f>Sheet1!B36</f>
         <v>Central</v>
       </c>
-      <c r="C24" s="11" t="str">
+      <c r="C24" s="10" t="str">
         <f>Sheet1!C36</f>
         <v>Gill</v>
       </c>
-      <c r="D24" s="11" t="str">
+      <c r="D24" s="10" t="str">
         <f>Sheet1!D36</f>
         <v>Binder</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f>Sheet1!E36</f>
         <v>46</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f>Sheet1!F36</f>
         <v>8.99</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f>Sheet1!G36</f>
         <v>413.54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <f>Sheet1!A37</f>
         <v>45689</v>
       </c>
-      <c r="B25" s="11" t="str">
+      <c r="B25" s="10" t="str">
         <f>Sheet1!B37</f>
         <v>Central</v>
       </c>
-      <c r="C25" s="11" t="str">
+      <c r="C25" s="10" t="str">
         <f>Sheet1!C37</f>
         <v>Smith</v>
       </c>
-      <c r="D25" s="11" t="str">
+      <c r="D25" s="10" t="str">
         <f>Sheet1!D37</f>
         <v>Binder</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <f>Sheet1!E37</f>
         <v>87</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f>Sheet1!F37</f>
         <v>15</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <f>Sheet1!G37</f>
         <v>1305</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <f>Sheet1!A38</f>
         <v>45706</v>
       </c>
-      <c r="B26" s="11" t="str">
+      <c r="B26" s="10" t="str">
         <f>Sheet1!B38</f>
         <v>East</v>
       </c>
-      <c r="C26" s="11" t="str">
+      <c r="C26" s="10" t="str">
         <f>Sheet1!C38</f>
         <v>Jones</v>
       </c>
-      <c r="D26" s="11" t="str">
+      <c r="D26" s="10" t="str">
         <f>Sheet1!D38</f>
         <v>Binder</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <f>Sheet1!E38</f>
         <v>4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f>Sheet1!F38</f>
         <v>4.99</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f>Sheet1!G38</f>
         <v>19.96</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <f>Sheet1!A39</f>
         <v>45723</v>
       </c>
-      <c r="B27" s="11" t="str">
+      <c r="B27" s="10" t="str">
         <f>Sheet1!B39</f>
         <v>West</v>
       </c>
-      <c r="C27" s="11" t="str">
+      <c r="C27" s="10" t="str">
         <f>Sheet1!C39</f>
         <v>Sorvino</v>
       </c>
-      <c r="D27" s="11" t="str">
+      <c r="D27" s="10" t="str">
         <f>Sheet1!D39</f>
         <v>Binder</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <f>Sheet1!E39</f>
         <v>7</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f>Sheet1!F39</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f>Sheet1!G39</f>
         <v>139.93</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <f>Sheet1!A40</f>
         <v>45740</v>
       </c>
-      <c r="B28" s="11" t="str">
+      <c r="B28" s="10" t="str">
         <f>Sheet1!B40</f>
         <v>Central</v>
       </c>
-      <c r="C28" s="11" t="str">
+      <c r="C28" s="10" t="str">
         <f>Sheet1!C40</f>
         <v>Jardine</v>
       </c>
-      <c r="D28" s="11" t="str">
+      <c r="D28" s="10" t="str">
         <f>Sheet1!D40</f>
         <v>Pen Set</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <f>Sheet1!E40</f>
         <v>50</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>Sheet1!F40</f>
         <v>4.99</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f>Sheet1!G40</f>
         <v>249.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <f>Sheet1!A41</f>
         <v>45757</v>
       </c>
-      <c r="B29" s="11" t="str">
+      <c r="B29" s="10" t="str">
         <f>Sheet1!B41</f>
         <v>Central</v>
       </c>
-      <c r="C29" s="11" t="str">
+      <c r="C29" s="10" t="str">
         <f>Sheet1!C41</f>
         <v>Andrews</v>
       </c>
-      <c r="D29" s="11" t="str">
+      <c r="D29" s="10" t="str">
         <f>Sheet1!D41</f>
         <v>Pencil</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <f>Sheet1!E41</f>
         <v>66</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f>Sheet1!F41</f>
         <v>1.99</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <f>Sheet1!G41</f>
         <v>131.34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <f>Sheet1!A42</f>
         <v>45774</v>
       </c>
-      <c r="B30" s="11" t="str">
+      <c r="B30" s="10" t="str">
         <f>Sheet1!B42</f>
         <v>East</v>
       </c>
-      <c r="C30" s="11" t="str">
+      <c r="C30" s="10" t="str">
         <f>Sheet1!C42</f>
         <v>Howard</v>
       </c>
-      <c r="D30" s="11" t="str">
+      <c r="D30" s="10" t="str">
         <f>Sheet1!D42</f>
         <v>Pen</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f>Sheet1!E42</f>
         <v>96</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f>Sheet1!F42</f>
         <v>4.99</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f>Sheet1!G42</f>
         <v>479.04</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <f>Sheet1!A43</f>
         <v>45791</v>
       </c>
-      <c r="B31" s="11" t="str">
+      <c r="B31" s="10" t="str">
         <f>Sheet1!B43</f>
         <v>Central</v>
       </c>
-      <c r="C31" s="11" t="str">
+      <c r="C31" s="10" t="str">
         <f>Sheet1!C43</f>
         <v>Gill</v>
       </c>
-      <c r="D31" s="11" t="str">
+      <c r="D31" s="10" t="str">
         <f>Sheet1!D43</f>
         <v>Pencil</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <f>Sheet1!E43</f>
         <v>53</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f>Sheet1!F43</f>
         <v>1.29</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <f>Sheet1!G43</f>
         <v>68.37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <f>Sheet1!A44</f>
         <v>45808</v>
       </c>
-      <c r="B32" s="11" t="str">
+      <c r="B32" s="10" t="str">
         <f>Sheet1!B44</f>
         <v>Central</v>
       </c>
-      <c r="C32" s="11" t="str">
+      <c r="C32" s="10" t="str">
         <f>Sheet1!C44</f>
         <v>Gill</v>
       </c>
-      <c r="D32" s="11" t="str">
+      <c r="D32" s="10" t="str">
         <f>Sheet1!D44</f>
         <v>Binder</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <f>Sheet1!E44</f>
         <v>80</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <f>Sheet1!F44</f>
         <v>8.99</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <f>Sheet1!G44</f>
         <v>719.2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <f>Sheet1!A45</f>
         <v>45825</v>
       </c>
-      <c r="B33" s="11" t="str">
+      <c r="B33" s="10" t="str">
         <f>Sheet1!B45</f>
         <v>Central</v>
       </c>
-      <c r="C33" s="11" t="str">
+      <c r="C33" s="10" t="str">
         <f>Sheet1!C45</f>
         <v>Kivell</v>
       </c>
-      <c r="D33" s="11" t="str">
+      <c r="D33" s="10" t="str">
         <f>Sheet1!D45</f>
         <v>Desk</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <f>Sheet1!E45</f>
         <v>5</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f>Sheet1!F45</f>
         <v>125</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <f>Sheet1!G45</f>
         <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <f>Sheet1!A46</f>
         <v>45842</v>
       </c>
-      <c r="B34" s="11" t="str">
+      <c r="B34" s="10" t="str">
         <f>Sheet1!B46</f>
         <v>East</v>
       </c>
-      <c r="C34" s="11" t="str">
+      <c r="C34" s="10" t="str">
         <f>Sheet1!C46</f>
         <v>Jones</v>
       </c>
-      <c r="D34" s="11" t="str">
+      <c r="D34" s="10" t="str">
         <f>Sheet1!D46</f>
         <v>Pen Set</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <f>Sheet1!E46</f>
         <v>62</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f>Sheet1!F46</f>
         <v>4.99</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <f>Sheet1!G46</f>
         <v>309.38</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <f>Sheet1!A47</f>
         <v>45859</v>
       </c>
-      <c r="B35" s="11" t="str">
+      <c r="B35" s="10" t="str">
         <f>Sheet1!B47</f>
         <v>Central</v>
       </c>
-      <c r="C35" s="11" t="str">
+      <c r="C35" s="10" t="str">
         <f>Sheet1!C47</f>
         <v>Morgan</v>
       </c>
-      <c r="D35" s="11" t="str">
+      <c r="D35" s="10" t="str">
         <f>Sheet1!D47</f>
         <v>Pen Set</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <f>Sheet1!E47</f>
         <v>55</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f>Sheet1!F47</f>
         <v>12.49</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <f>Sheet1!G47</f>
         <v>686.95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <f>Sheet1!A48</f>
         <v>45876</v>
       </c>
-      <c r="B36" s="11" t="str">
+      <c r="B36" s="10" t="str">
         <f>Sheet1!B48</f>
         <v>Central</v>
       </c>
-      <c r="C36" s="11" t="str">
+      <c r="C36" s="10" t="str">
         <f>Sheet1!C48</f>
         <v>Kivell</v>
       </c>
-      <c r="D36" s="11" t="str">
+      <c r="D36" s="10" t="str">
         <f>Sheet1!D48</f>
         <v>Pen Set</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <f>Sheet1!E48</f>
         <v>42</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f>Sheet1!F48</f>
         <v>23.95</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <f>Sheet1!G48</f>
         <v>1005.9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <f>Sheet1!A49</f>
         <v>45893</v>
       </c>
-      <c r="B37" s="11" t="str">
+      <c r="B37" s="10" t="str">
         <f>Sheet1!B49</f>
         <v>West</v>
       </c>
-      <c r="C37" s="11" t="str">
+      <c r="C37" s="10" t="str">
         <f>Sheet1!C49</f>
         <v>Sorvino</v>
       </c>
-      <c r="D37" s="11" t="str">
+      <c r="D37" s="10" t="str">
         <f>Sheet1!D49</f>
         <v>Desk</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <f>Sheet1!E49</f>
         <v>3</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f>Sheet1!F49</f>
         <v>275</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f>Sheet1!G49</f>
         <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <f>Sheet1!A50</f>
         <v>45910</v>
       </c>
-      <c r="B38" s="11" t="str">
+      <c r="B38" s="10" t="str">
         <f>Sheet1!B50</f>
         <v>Central</v>
       </c>
-      <c r="C38" s="11" t="str">
+      <c r="C38" s="10" t="str">
         <f>Sheet1!C50</f>
         <v>Gill</v>
       </c>
-      <c r="D38" s="11" t="str">
+      <c r="D38" s="10" t="str">
         <f>Sheet1!D50</f>
         <v>Pencil</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <f>Sheet1!E50</f>
         <v>7</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <f>Sheet1!F50</f>
         <v>1.29</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <f>Sheet1!G50</f>
         <v>9.0299999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <f>Sheet1!A51</f>
         <v>45927</v>
       </c>
-      <c r="B39" s="11" t="str">
+      <c r="B39" s="10" t="str">
         <f>Sheet1!B51</f>
         <v>West</v>
       </c>
-      <c r="C39" s="11" t="str">
+      <c r="C39" s="10" t="str">
         <f>Sheet1!C51</f>
         <v>Sorvino</v>
       </c>
-      <c r="D39" s="11" t="str">
+      <c r="D39" s="10" t="str">
         <f>Sheet1!D51</f>
         <v>Pen</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <f>Sheet1!E51</f>
         <v>76</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <f>Sheet1!F51</f>
         <v>1.99</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <f>Sheet1!G51</f>
         <v>151.24</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <f>Sheet1!A52</f>
         <v>45944</v>
       </c>
-      <c r="B40" s="11" t="str">
+      <c r="B40" s="10" t="str">
         <f>Sheet1!B52</f>
         <v>West</v>
       </c>
-      <c r="C40" s="11" t="str">
+      <c r="C40" s="10" t="str">
         <f>Sheet1!C52</f>
         <v>Thompson</v>
       </c>
-      <c r="D40" s="11" t="str">
+      <c r="D40" s="10" t="str">
         <f>Sheet1!D52</f>
         <v>Binder</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f>Sheet1!E52</f>
         <v>57</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f>Sheet1!F52</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <f>Sheet1!G52</f>
         <v>1139.43</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="A41" s="11">
         <f>Sheet1!A53</f>
         <v>45961</v>
       </c>
-      <c r="B41" s="11" t="str">
+      <c r="B41" s="10" t="str">
         <f>Sheet1!B53</f>
         <v>Central</v>
       </c>
-      <c r="C41" s="11" t="str">
+      <c r="C41" s="10" t="str">
         <f>Sheet1!C53</f>
         <v>Andrews</v>
       </c>
-      <c r="D41" s="11" t="str">
+      <c r="D41" s="10" t="str">
         <f>Sheet1!D53</f>
         <v>Pencil</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <f>Sheet1!E53</f>
         <v>14</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <f>Sheet1!F53</f>
         <v>1.29</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <f>Sheet1!G53</f>
         <v>18.059999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <f>Sheet1!A54</f>
         <v>45978</v>
       </c>
-      <c r="B42" s="11" t="str">
+      <c r="B42" s="10" t="str">
         <f>Sheet1!B54</f>
         <v>Central</v>
       </c>
-      <c r="C42" s="11" t="str">
+      <c r="C42" s="10" t="str">
         <f>Sheet1!C54</f>
         <v>Jardine</v>
       </c>
-      <c r="D42" s="11" t="str">
+      <c r="D42" s="10" t="str">
         <f>Sheet1!D54</f>
         <v>Binder</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <f>Sheet1!E54</f>
         <v>11</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <f>Sheet1!F54</f>
         <v>4.99</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <f>Sheet1!G54</f>
         <v>54.89</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <f>Sheet1!A55</f>
         <v>45995</v>
       </c>
-      <c r="B43" s="11" t="str">
+      <c r="B43" s="10" t="str">
         <f>Sheet1!B55</f>
         <v>Central</v>
       </c>
-      <c r="C43" s="11" t="str">
+      <c r="C43" s="10" t="str">
         <f>Sheet1!C55</f>
         <v>Jardine</v>
       </c>
-      <c r="D43" s="11" t="str">
+      <c r="D43" s="10" t="str">
         <f>Sheet1!D55</f>
         <v>Binder</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <f>Sheet1!E55</f>
         <v>94</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f>Sheet1!F55</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <f>Sheet1!G55</f>
         <v>1879.06</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <f>Sheet1!A56</f>
         <v>46012</v>
       </c>
-      <c r="B44" s="11" t="str">
+      <c r="B44" s="10" t="str">
         <f>Sheet1!B56</f>
         <v>Central</v>
       </c>
-      <c r="C44" s="11" t="str">
+      <c r="C44" s="10" t="str">
         <f>Sheet1!C56</f>
         <v>Andrews</v>
       </c>
-      <c r="D44" s="11" t="str">
+      <c r="D44" s="10" t="str">
         <f>Sheet1!D56</f>
         <v>Binder</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <f>Sheet1!E56</f>
         <v>28</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <f>Sheet1!F56</f>
         <v>4.99</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <f>Sheet1!G56</f>
         <v>139.72</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C007F9-6FDB-4C56-BD6C-3294F1BC29DF}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="20">
+        <v>100</v>
+      </c>
+      <c r="C2" s="20">
+        <v>110</v>
+      </c>
+      <c r="D2" s="20">
+        <v>120</v>
+      </c>
+      <c r="E2" s="20">
+        <v>130</v>
+      </c>
+      <c r="F2" s="20">
+        <v>140</v>
+      </c>
+      <c r="G2" s="20">
+        <v>150</v>
+      </c>
+      <c r="H2" s="20">
+        <v>160</v>
+      </c>
+      <c r="I2" s="20">
+        <v>170</v>
+      </c>
+      <c r="J2" s="20">
+        <v>180</v>
+      </c>
+      <c r="K2" s="20">
+        <v>190</v>
+      </c>
+      <c r="L2" s="20">
+        <v>200</v>
+      </c>
+      <c r="M2" s="20">
+        <v>210</v>
+      </c>
+      <c r="N2" s="20">
+        <v>1860</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="20">
+        <v>150</v>
+      </c>
+      <c r="C3" s="20">
+        <v>160</v>
+      </c>
+      <c r="D3" s="20">
+        <v>170</v>
+      </c>
+      <c r="E3" s="20">
+        <v>180</v>
+      </c>
+      <c r="F3" s="20">
+        <v>190</v>
+      </c>
+      <c r="G3" s="20">
+        <v>200</v>
+      </c>
+      <c r="H3" s="20">
+        <v>210</v>
+      </c>
+      <c r="I3" s="20">
+        <v>220</v>
+      </c>
+      <c r="J3" s="20">
+        <v>230</v>
+      </c>
+      <c r="K3" s="20">
+        <v>240</v>
+      </c>
+      <c r="L3" s="20">
+        <v>250</v>
+      </c>
+      <c r="M3" s="20">
+        <v>260</v>
+      </c>
+      <c r="N3" s="20">
+        <v>2460</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="20">
+        <v>130</v>
+      </c>
+      <c r="C4" s="20">
+        <v>140</v>
+      </c>
+      <c r="D4" s="20">
+        <v>150</v>
+      </c>
+      <c r="E4" s="20">
+        <v>160</v>
+      </c>
+      <c r="F4" s="20">
+        <v>170</v>
+      </c>
+      <c r="G4" s="20">
+        <v>180</v>
+      </c>
+      <c r="H4" s="20">
+        <v>190</v>
+      </c>
+      <c r="I4" s="20">
+        <v>200</v>
+      </c>
+      <c r="J4" s="20">
+        <v>210</v>
+      </c>
+      <c r="K4" s="20">
+        <v>220</v>
+      </c>
+      <c r="L4" s="20">
+        <v>230</v>
+      </c>
+      <c r="M4" s="20">
+        <v>240</v>
+      </c>
+      <c r="N4" s="20">
+        <v>2220</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="20">
+        <v>120</v>
+      </c>
+      <c r="C5" s="20">
+        <v>130</v>
+      </c>
+      <c r="D5" s="20">
+        <v>140</v>
+      </c>
+      <c r="E5" s="20">
+        <v>150</v>
+      </c>
+      <c r="F5" s="20">
+        <v>160</v>
+      </c>
+      <c r="G5" s="20">
+        <v>170</v>
+      </c>
+      <c r="H5" s="20">
+        <v>180</v>
+      </c>
+      <c r="I5" s="20">
+        <v>190</v>
+      </c>
+      <c r="J5" s="20">
+        <v>200</v>
+      </c>
+      <c r="K5" s="20">
+        <v>210</v>
+      </c>
+      <c r="L5" s="20">
+        <v>220</v>
+      </c>
+      <c r="M5" s="20">
+        <v>230</v>
+      </c>
+      <c r="N5" s="20">
+        <v>2100</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="20">
+        <v>140</v>
+      </c>
+      <c r="C6" s="20">
+        <v>150</v>
+      </c>
+      <c r="D6" s="20">
+        <v>160</v>
+      </c>
+      <c r="E6" s="20">
+        <v>170</v>
+      </c>
+      <c r="F6" s="20">
+        <v>180</v>
+      </c>
+      <c r="G6" s="20">
+        <v>190</v>
+      </c>
+      <c r="H6" s="20">
+        <v>200</v>
+      </c>
+      <c r="I6" s="20">
+        <v>210</v>
+      </c>
+      <c r="J6" s="20">
+        <v>220</v>
+      </c>
+      <c r="K6" s="20">
+        <v>230</v>
+      </c>
+      <c r="L6" s="20">
+        <v>240</v>
+      </c>
+      <c r="M6" s="20">
+        <v>250</v>
+      </c>
+      <c r="N6" s="20">
+        <v>2340</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="20">
+        <v>110</v>
+      </c>
+      <c r="C7" s="20">
+        <v>115</v>
+      </c>
+      <c r="D7" s="20">
+        <v>120</v>
+      </c>
+      <c r="E7" s="20">
+        <v>125</v>
+      </c>
+      <c r="F7" s="20">
+        <v>130</v>
+      </c>
+      <c r="G7" s="20">
+        <v>135</v>
+      </c>
+      <c r="H7" s="20">
+        <v>140</v>
+      </c>
+      <c r="I7" s="20">
+        <v>145</v>
+      </c>
+      <c r="J7" s="20">
+        <v>150</v>
+      </c>
+      <c r="K7" s="20">
+        <v>155</v>
+      </c>
+      <c r="L7" s="20">
+        <v>160</v>
+      </c>
+      <c r="M7" s="20">
+        <v>165</v>
+      </c>
+      <c r="N7" s="20">
+        <v>1650</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="20">
+        <v>125</v>
+      </c>
+      <c r="C8" s="20">
+        <v>135</v>
+      </c>
+      <c r="D8" s="20">
+        <v>145</v>
+      </c>
+      <c r="E8" s="20">
+        <v>155</v>
+      </c>
+      <c r="F8" s="20">
+        <v>165</v>
+      </c>
+      <c r="G8" s="20">
+        <v>175</v>
+      </c>
+      <c r="H8" s="20">
+        <v>185</v>
+      </c>
+      <c r="I8" s="20">
+        <v>195</v>
+      </c>
+      <c r="J8" s="20">
+        <v>205</v>
+      </c>
+      <c r="K8" s="20">
+        <v>215</v>
+      </c>
+      <c r="L8" s="20">
+        <v>225</v>
+      </c>
+      <c r="M8" s="20">
+        <v>235</v>
+      </c>
+      <c r="N8" s="20">
+        <v>2160</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate topLabels="1">
+    <dataRefs count="4">
+      <dataRef ref="A1:E8" sheet="cons._1"/>
+      <dataRef ref="A1:E8" sheet="cons._2"/>
+      <dataRef ref="A1:E8" sheet="cons._3"/>
+      <dataRef ref="A1:E8" sheet="cons._4"/>
+    </dataRefs>
+  </dataConsolidate>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{ED70F66D-DF0D-43A6-B657-8684135F5D4B}">
+      <formula1>$P$2:$P$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42E274B-FBED-472A-B6DB-BA7DDF84A0C9}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>160</v>
+      </c>
+      <c r="D3">
+        <v>170</v>
+      </c>
+      <c r="E3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>130</v>
+      </c>
+      <c r="C4">
+        <v>140</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>140</v>
+      </c>
+      <c r="E5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>110</v>
+      </c>
+      <c r="C7">
+        <v>115</v>
+      </c>
+      <c r="D7">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>135</v>
+      </c>
+      <c r="D8">
+        <v>145</v>
+      </c>
+      <c r="E8">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F251ED-4382-4419-B335-509BF2DB5C8A}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="18">
+        <v>130</v>
+      </c>
+      <c r="C2" s="18">
+        <v>140</v>
+      </c>
+      <c r="D2" s="18">
+        <v>150</v>
+      </c>
+      <c r="E2" s="18">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="18">
+        <v>180</v>
+      </c>
+      <c r="C3" s="18">
+        <v>190</v>
+      </c>
+      <c r="D3" s="18">
+        <v>200</v>
+      </c>
+      <c r="E3" s="18">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="18">
+        <v>160</v>
+      </c>
+      <c r="C4" s="18">
+        <v>170</v>
+      </c>
+      <c r="D4" s="18">
+        <v>180</v>
+      </c>
+      <c r="E4" s="18">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="18">
+        <v>150</v>
+      </c>
+      <c r="C5" s="18">
+        <v>160</v>
+      </c>
+      <c r="D5" s="18">
+        <v>170</v>
+      </c>
+      <c r="E5" s="18">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="18">
+        <v>170</v>
+      </c>
+      <c r="C6" s="18">
+        <v>180</v>
+      </c>
+      <c r="D6" s="18">
+        <v>190</v>
+      </c>
+      <c r="E6" s="18">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="18">
+        <v>125</v>
+      </c>
+      <c r="C7" s="18">
+        <v>130</v>
+      </c>
+      <c r="D7" s="18">
+        <v>135</v>
+      </c>
+      <c r="E7" s="18">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="18">
+        <v>155</v>
+      </c>
+      <c r="C8" s="18">
+        <v>165</v>
+      </c>
+      <c r="D8" s="18">
+        <v>175</v>
+      </c>
+      <c r="E8" s="18">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C672B4-A03F-41F4-80D0-BF0AC61E428D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>160</v>
+      </c>
+      <c r="C2">
+        <v>170</v>
+      </c>
+      <c r="D2">
+        <v>180</v>
+      </c>
+      <c r="E2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>210</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+      <c r="D3">
+        <v>230</v>
+      </c>
+      <c r="E3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>190</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>210</v>
+      </c>
+      <c r="E4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>190</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>210</v>
+      </c>
+      <c r="D6">
+        <v>220</v>
+      </c>
+      <c r="E6">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>140</v>
+      </c>
+      <c r="C7">
+        <v>145</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>185</v>
+      </c>
+      <c r="C8">
+        <v>195</v>
+      </c>
+      <c r="D8">
+        <v>205</v>
+      </c>
+      <c r="E8">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD8A6F6-DCAE-46B7-8044-6A3929B29C26}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="20">
+        <v>190</v>
+      </c>
+      <c r="C2" s="20">
+        <v>200</v>
+      </c>
+      <c r="D2" s="20">
+        <v>210</v>
+      </c>
+      <c r="E2" s="20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="20">
+        <v>240</v>
+      </c>
+      <c r="C3" s="20">
+        <v>250</v>
+      </c>
+      <c r="D3" s="20">
+        <v>260</v>
+      </c>
+      <c r="E3" s="20">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="20">
+        <v>220</v>
+      </c>
+      <c r="C4" s="20">
+        <v>230</v>
+      </c>
+      <c r="D4" s="20">
+        <v>240</v>
+      </c>
+      <c r="E4" s="20">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="20">
+        <v>210</v>
+      </c>
+      <c r="C5" s="20">
+        <v>220</v>
+      </c>
+      <c r="D5" s="20">
+        <v>230</v>
+      </c>
+      <c r="E5" s="20">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="20">
+        <v>230</v>
+      </c>
+      <c r="C6" s="20">
+        <v>240</v>
+      </c>
+      <c r="D6" s="20">
+        <v>250</v>
+      </c>
+      <c r="E6" s="20">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="20">
+        <v>155</v>
+      </c>
+      <c r="C7" s="20">
+        <v>160</v>
+      </c>
+      <c r="D7" s="20">
+        <v>165</v>
+      </c>
+      <c r="E7" s="20">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="20">
+        <v>215</v>
+      </c>
+      <c r="C8" s="20">
+        <v>225</v>
+      </c>
+      <c r="D8" s="20">
+        <v>235</v>
+      </c>
+      <c r="E8" s="20">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/advanced_Excel.xlsx
+++ b/advanced_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\karan_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8AE482-92B9-4E48-9C51-B3DAF1180B1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA71D0F-B3C1-43B8-B643-4FF697AADE5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="50">
   <si>
     <t>OrderDate</t>
   </si>
@@ -326,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -378,6 +378,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3383,15 +3386,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C007F9-6FDB-4C56-BD6C-3294F1BC29DF}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -3431,60 +3434,58 @@
       <c r="M1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2">
         <v>110</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2">
         <v>120</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2">
         <v>130</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2">
         <v>140</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2">
         <v>150</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2">
         <v>160</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2">
         <v>170</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2">
         <v>180</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2">
         <v>190</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2">
         <v>200</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2">
         <v>210</v>
       </c>
       <c r="N2" s="20">
+        <f>SUM(B2:M2)</f>
         <v>1860</v>
       </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>35</v>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="20">
         <v>150</v>
@@ -3523,15 +3524,16 @@
         <v>260</v>
       </c>
       <c r="N3" s="20">
+        <f t="shared" ref="N3:N9" si="0">SUM(B3:M3)</f>
         <v>2460</v>
       </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>38</v>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="20">
         <v>130</v>
@@ -3570,14 +3572,15 @@
         <v>240</v>
       </c>
       <c r="N4" s="20">
+        <f t="shared" si="0"/>
         <v>2220</v>
       </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="20">
@@ -3617,15 +3620,16 @@
         <v>230</v>
       </c>
       <c r="N5" s="20">
+        <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>39</v>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="20">
         <v>140</v>
@@ -3664,15 +3668,16 @@
         <v>250</v>
       </c>
       <c r="N6" s="20">
+        <f t="shared" si="0"/>
         <v>2340</v>
       </c>
-      <c r="P6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="20">
         <v>110</v>
@@ -3711,15 +3716,16 @@
         <v>165</v>
       </c>
       <c r="N7" s="20">
+        <f t="shared" si="0"/>
         <v>1650</v>
       </c>
-      <c r="P7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>37</v>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="20">
         <v>125</v>
@@ -3758,19 +3764,26 @@
         <v>235</v>
       </c>
       <c r="N8" s="20">
+        <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-      <c r="P8" t="s">
-        <v>39</v>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N9" s="15">
+        <f>SUM(N2:N8)</f>
+        <v>14790</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate topLabels="1">
     <dataRefs count="4">
-      <dataRef ref="A1:E8" sheet="cons._1"/>
-      <dataRef ref="A1:E8" sheet="cons._2"/>
-      <dataRef ref="A1:E8" sheet="cons._3"/>
-      <dataRef ref="A1:E8" sheet="cons._4"/>
+      <dataRef ref="B2:D8" sheet="cons._1"/>
+      <dataRef ref="B2:D8" sheet="cons._2"/>
+      <dataRef ref="B2:D8" sheet="cons._3"/>
+      <dataRef ref="B2:D8" sheet="cons._4"/>
     </dataRefs>
   </dataConsolidate>
   <dataValidations count="1">
@@ -3788,7 +3801,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4089,7 +4102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C672B4-A03F-41F4-80D0-BF0AC61E428D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
